--- a/nanoplm/static/sample.xlsx
+++ b/nanoplm/static/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\GitHub\nanoPLM\nanoplm\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4F4CBE-D9F2-4DA1-839A-190596DEA2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123BFEDB-12FA-46A5-95FF-2788C078B37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E9D9C922-6928-4E95-9AED-C454AA23BB41}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/nanoplm/static/sample.xlsx
+++ b/nanoplm/static/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\GitHub\nanoPLM\nanoplm\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123BFEDB-12FA-46A5-95FF-2788C078B37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5B5BF8-B147-40DE-8397-B45FCFD95832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E9D9C922-6928-4E95-9AED-C454AA23BB41}"/>
   </bookViews>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>uuid</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -60,7 +57,220 @@
     <t>client_id</t>
   </si>
   <si>
-    <t>type</t>
+    <t>Pilz GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Grob-Werke GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Euchner GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Wilhelm Böllhoff GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Siemens AG</t>
+  </si>
+  <si>
+    <t>Robert Bosch GmbH</t>
+  </si>
+  <si>
+    <t>Adolf Würth GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Eine 2-teilige Schraube für Sicherheitsanwendungen (z.B. Montage von Sicherheitsschaltern an Werkzeugmaschinen)</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
+  </si>
+  <si>
+    <t>10.10.10.3</t>
+  </si>
+  <si>
+    <t>Freigegeben</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x26x6 VPE 100</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x26x6 VPE 1000</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x28x6 VPE 100</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x28x6 VPE 1000</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x30x6 VPE 100</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x30x6 VPE 1000</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x32x6 VPE 100</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x32x6 VPE 1000</t>
+  </si>
+  <si>
+    <t>file_ids</t>
+  </si>
+  <si>
+    <t>10.10.10.4</t>
+  </si>
+  <si>
+    <t>10.10.10.5</t>
+  </si>
+  <si>
+    <t>10.10.10.6</t>
+  </si>
+  <si>
+    <t>10.10.10.7</t>
+  </si>
+  <si>
+    <t>10.10.10.8</t>
+  </si>
+  <si>
+    <t>10.10.10.9</t>
+  </si>
+  <si>
+    <t>10.10.10.10</t>
+  </si>
+  <si>
+    <t>10.10.10.11</t>
+  </si>
+  <si>
+    <t>10.10.10.12</t>
+  </si>
+  <si>
+    <t>10.10.10.13</t>
+  </si>
+  <si>
+    <t>10.10.10.14</t>
+  </si>
+  <si>
+    <t>10.10.10.15</t>
+  </si>
+  <si>
+    <t>10.10.10.16</t>
+  </si>
+  <si>
+    <t>10.10.10.17</t>
+  </si>
+  <si>
+    <t>10.10.10.18</t>
+  </si>
+  <si>
+    <t>10.10.10.19</t>
+  </si>
+  <si>
+    <t>10.10.10.20</t>
+  </si>
+  <si>
+    <t>10.10.10.21</t>
+  </si>
+  <si>
+    <t>10.10.10.22</t>
+  </si>
+  <si>
+    <t>10.10.10.23</t>
+  </si>
+  <si>
+    <t>10.10.10.24</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>EG-Einbauerklärung_Camelox_(R)</t>
+  </si>
+  <si>
+    <t>Bericht_Qualitätssicherung_10.10.10.1.000002.pdf</t>
+  </si>
+  <si>
+    <t>Bericht_Qualitätssicherung_10.10.10.1.000001.pdf</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x28x12 VPE 100</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x28x12 VPE 1000</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x32x12 VPE 100</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x32x12 VPE 1000</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x36x12 VPE 100</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x36x12 VPE 1000</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x40x12 VPE 100</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x40x12 VPE 1000</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x28x12 VPE 24</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x32x12 VPE 24</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x36x12 VPE 24</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x40x12 VPE 24</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x26x6 VPE 24</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x28x6 VPE 24</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x30x6 VPE 24</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x32x6 VPE 24</t>
   </si>
 </sst>
 </file>
@@ -96,8 +306,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -412,186 +626,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5697FD66-A6E9-4158-BA91-81F91E4CF38C}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF1674B-7332-4117-AA6D-F5BB3109BDA6}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -600,460 +1175,419 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1063,15 +1597,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46922E-CBF8-44B6-BF35-1884B5E57A0D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,70 +1616,63 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1152,106 +1682,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1E3835-92BF-4C56-B250-AB2F79F7934F}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
+      <c r="B4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/nanoplm/static/sample.xlsx
+++ b/nanoplm/static/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\GitHub\nanoPLM\nanoplm\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5B5BF8-B147-40DE-8397-B45FCFD95832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1AFA5C-B1FF-4F93-A227-57365B59F465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E9D9C922-6928-4E95-9AED-C454AA23BB41}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/nanoplm/static/sample.xlsx
+++ b/nanoplm/static/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\GitHub\nanoPLM\nanoplm\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1AFA5C-B1FF-4F93-A227-57365B59F465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78349DF5-ADB6-4773-B3A9-198F8EA65C7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E9D9C922-6928-4E95-9AED-C454AA23BB41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{E9D9C922-6928-4E95-9AED-C454AA23BB41}"/>
   </bookViews>
   <sheets>
     <sheet name="component" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Sicherheitsschraube Camelox® 6x30x6 VPE 1000</t>
   </si>
   <si>
-    <t>Sicherheitsschraube Camelox® 6x32x6 VPE 100</t>
-  </si>
-  <si>
-    <t>Sicherheitsschraube Camelox® 6x32x6 VPE 1000</t>
-  </si>
-  <si>
     <t>file_ids</t>
   </si>
   <si>
@@ -270,7 +264,100 @@
     <t>Sicherheitsschraube Camelox® 6x30x6 VPE 24</t>
   </si>
   <si>
-    <t>Sicherheitsschraube Camelox® 6x32x6 VPE 24</t>
+    <t>Sicherheitsschraube Camelox® 6x28x12</t>
+  </si>
+  <si>
+    <t>children_ids</t>
+  </si>
+  <si>
+    <t>10.10.20.4</t>
+  </si>
+  <si>
+    <t>10.10.20.1</t>
+  </si>
+  <si>
+    <t>10.10.30.1</t>
+  </si>
+  <si>
+    <t>10.10.10.25</t>
+  </si>
+  <si>
+    <t>Schraube Innensechskant Camelox® 6x28x12</t>
+  </si>
+  <si>
+    <t>Eine Grundschraube mit Innensechskant für die Sicherheitsschraube Camelox® 6</t>
+  </si>
+  <si>
+    <t>Einwegeinsatz Camelox® 6 Rot</t>
+  </si>
+  <si>
+    <t>Ein roter Kunststoffeinsatz für die Sicherheitsschraube Camelox® 6</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x32x12</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x36x12</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x40x12</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x26x6</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x28x6</t>
+  </si>
+  <si>
+    <t>Sicherheitsschraube Camelox® 6x30x6</t>
+  </si>
+  <si>
+    <t>10.10.10.26</t>
+  </si>
+  <si>
+    <t>10.10.10.27</t>
+  </si>
+  <si>
+    <t>10.10.10.28</t>
+  </si>
+  <si>
+    <t>Schraube Innensechskant Camelox® 6x32x12</t>
+  </si>
+  <si>
+    <t>Schraube Innensechskant Camelox® 6x36x12</t>
+  </si>
+  <si>
+    <t>Schraube Innensechskant Camelox® 6x40x12</t>
+  </si>
+  <si>
+    <t>Schraube Innensechskant Camelox® 6x24x6</t>
+  </si>
+  <si>
+    <t>Schraube Innensechskant Camelox® 6x26x6</t>
+  </si>
+  <si>
+    <t>Schraube Innensechskant Camelox® 6x28x6</t>
+  </si>
+  <si>
+    <t>Schraube Innensechskant Camelox® 6x30x6</t>
+  </si>
+  <si>
+    <t>10.10.20.2</t>
+  </si>
+  <si>
+    <t>10.10.20.3</t>
+  </si>
+  <si>
+    <t>10.10.20.5</t>
+  </si>
+  <si>
+    <t>10.10.20.6</t>
+  </si>
+  <si>
+    <t>10.10.20.7</t>
+  </si>
+  <si>
+    <t>10.10.20.8</t>
   </si>
 </sst>
 </file>
@@ -626,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5697FD66-A6E9-4158-BA91-81F91E4CF38C}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,9 +725,10 @@
     <col min="2" max="2" width="41.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,16 +744,19 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -676,16 +767,19 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F2" s="2">
+        <v>29.37</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -696,16 +790,19 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="2">
+        <v>30.37</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -716,19 +813,22 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F4" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -736,19 +836,22 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -756,19 +859,22 @@
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -776,19 +882,22 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -796,19 +905,22 @@
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -816,19 +928,22 @@
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -836,19 +951,22 @@
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -856,19 +974,22 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -876,19 +997,22 @@
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -896,19 +1020,22 @@
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -916,19 +1043,22 @@
       <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -936,19 +1066,22 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -956,19 +1089,22 @@
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -976,19 +1112,22 @@
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -996,19 +1135,22 @@
       <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1016,19 +1158,22 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1036,19 +1181,22 @@
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1056,19 +1204,22 @@
       <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1076,19 +1227,22 @@
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -1096,19 +1250,22 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -1116,27 +1273,305 @@
       <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38">
         <v>1</v>
       </c>
     </row>
@@ -1150,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF1674B-7332-4117-AA6D-F5BB3109BDA6}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1200,10 +1635,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1217,10 +1652,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1231,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1245,10 +1680,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1259,10 +1694,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1273,10 +1708,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1287,10 +1722,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1301,10 +1736,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1315,10 +1750,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1329,10 +1764,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1343,10 +1778,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1357,10 +1792,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1371,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1385,10 +1820,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1399,10 +1834,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1413,10 +1848,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1427,10 +1862,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1441,10 +1876,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1455,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1469,10 +1904,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1483,10 +1918,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1497,10 +1932,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1511,10 +1946,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -1525,10 +1960,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -1539,10 +1974,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -1553,10 +1988,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -1567,10 +2002,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1581,10 +2016,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1616,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1707,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1715,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1723,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
